--- a/All_Data/lemmatize.xlsx
+++ b/All_Data/lemmatize.xlsx
@@ -1,43 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pnair/Documents/Capstone/DSCIADS2-CAP-OP/All_Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971E2BB3-7B9B-6849-87E3-734A7A26504B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+  <si>
+    <t>repo</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>alvations/pywsd</t>
+  </si>
+  <si>
+    <t>lesk.py</t>
+  </si>
+  <si>
+    <t>970ed2b288d3d82f880ab8d4ae63c233211d8b3d</t>
+  </si>
+  <si>
+    <t>https://github.com/alvations/pywsd/commit/970ed2b288d3d82f880ab8d4ae63c233211d8b3d</t>
+  </si>
+  <si>
+    <t>pywsd/utils.py</t>
+  </si>
+  <si>
+    <t>802c094aa3b0b97f9fa8d32d8f9379d5cb0329e3</t>
+  </si>
+  <si>
+    <t>https://github.com/alvations/pywsd/commit/802c094aa3b0b97f9fa8d32d8f9379d5cb0329e3</t>
+  </si>
+  <si>
+    <t>Rostlab/nalaf</t>
+  </si>
+  <si>
+    <t>nalaf/download_data.py</t>
+  </si>
+  <si>
+    <t>13bf86d5973aa24fc75f93b73571308700bc94c3</t>
+  </si>
+  <si>
+    <t>TODO download non-packaged [biolemmatizer-core-1.2-jar-with-dependencies.jar](https:\/\/github.com\/Rostlab\/nalaf\/blob\/develop\/nalaf\/data\/biolemmatizer-core-1.2-jar-with-dependencies.jar)</t>
+  </si>
+  <si>
+    <t>https://github.com/Rostlab/nalaf/commit/13bf86d5973aa24fc75f93b73571308700bc94c3</t>
+  </si>
+  <si>
+    <t>explosion/spaCy</t>
+  </si>
+  <si>
+    <t>spacy/language.py</t>
+  </si>
+  <si>
+    <t>e5d9eaf79c5c935b4553c5ede31de383571fe0dc</t>
+  </si>
+  <si>
+    <t>TODO: Will be replaced when the lemmatizer becomes a pipeline component</t>
+  </si>
+  <si>
+    <t>https://github.com/explosion/spaCy/commit/e5d9eaf79c5c935b4553c5ede31de383571fe0dc</t>
+  </si>
+  <si>
+    <t>0cddb0dbe9b9af85bb017393ec017a16f2acdaec</t>
+  </si>
+  <si>
+    <t>https://github.com/explosion/spaCy/commit/0cddb0dbe9b9af85bb017393ec017a16f2acdaec</t>
+  </si>
+  <si>
+    <t>e257e66ab908e289b64976558f843956376923d5</t>
+  </si>
+  <si>
+    <t>https://github.com/explosion/spaCy/commit/e257e66ab908e289b64976558f843956376923d5</t>
+  </si>
+  <si>
+    <t>MLTD</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>'' || #TODO: various stem \/ lemmatizers. || from nltk.stem import WordNetLemmatizer || wnl = WordNetLemmatizer() || def stem(word; option=\"wnlemma\") ||   if option == \"wnlemma\": ||     return wnl.lemmatize(word) ||   if option == \"porter\": ||     return porter.stem(word) || '''</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +156,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,227 +498,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="221.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>repo</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>filename</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Commit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>alvations/pywsd</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>lesk.py</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>970ed2b288d3d82f880ab8d4ae63c233211d8b3d</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>''' || #TODO: various stem \/ lemmatizers. || from nltk.stem import WordNetLemmatizer || wnl = WordNetLemmatizer() || def stem(word; option=\"wnlemma\") ||   if option == \"wnlemma\": ||     return wnl.lemmatize(word) ||   if option == \"porter\": ||     return porter.stem(word) || '''</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://github.com/alvations/pywsd/commit/970ed2b288d3d82f880ab8d4ae63c233211d8b3d</t>
-        </is>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>alvations/pywsd</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>pywsd/utils.py</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>802c094aa3b0b97f9fa8d32d8f9379d5cb0329e3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>''' || #TODO: various stem \/ lemmatizers. || from nltk.stem import WordNetLemmatizer || wnl = WordNetLemmatizer() || def stem(word; option=\"wnlemma\") ||   if option == \"wnlemma\": ||     return wnl.lemmatize(word) ||   if option == \"porter\": ||     return porter.stem(word) || '''</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://github.com/alvations/pywsd/commit/802c094aa3b0b97f9fa8d32d8f9379d5cb0329e3</t>
-        </is>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rostlab/nalaf</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>nalaf/download_data.py</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13bf86d5973aa24fc75f93b73571308700bc94c3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TODO download non-packaged [biolemmatizer-core-1.2-jar-with-dependencies.jar](https:\/\/github.com\/Rostlab\/nalaf\/blob\/develop\/nalaf\/data\/biolemmatizer-core-1.2-jar-with-dependencies.jar)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://github.com/Rostlab/nalaf/commit/13bf86d5973aa24fc75f93b73571308700bc94c3</t>
-        </is>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>explosion/spaCy</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>spacy/language.py</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>e5d9eaf79c5c935b4553c5ede31de383571fe0dc</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TODO: Will be replaced when the lemmatizer becomes a pipeline component</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://github.com/explosion/spaCy/commit/e5d9eaf79c5c935b4553c5ede31de383571fe0dc</t>
-        </is>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>explosion/spaCy</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>spacy/language.py</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0cddb0dbe9b9af85bb017393ec017a16f2acdaec</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>TODO: Will be replaced when the lemmatizer becomes a pipeline component</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://github.com/explosion/spaCy/commit/0cddb0dbe9b9af85bb017393ec017a16f2acdaec</t>
-        </is>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>explosion/spaCy</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>spacy/language.py</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>e257e66ab908e289b64976558f843956376923d5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>TODO: Will be replaced when the lemmatizer becomes a pipeline component</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://github.com/explosion/spaCy/commit/e257e66ab908e289b64976558f843956376923d5</t>
-        </is>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{6222144E-168E-7647-B873-7FB2D44C10AD}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>